--- a/Client/Dev/PandaVillage/Assets/Tables/building_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/building_data.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,19 +358,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs\Building\Barn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required_upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs\Building\DeluxeBarn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Building\Barn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required_upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
+    <t>Prefabs\Building\ShippingBin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤사이 안에 넣어둔 아이템이 팔립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipping Bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_spawn_pos_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_spawn_pos_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,10 +786,12 @@
     <col min="11" max="11" width="74" style="1" customWidth="1"/>
     <col min="12" max="12" width="32.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="22.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,10 +829,16 @@
         <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -836,10 +876,16 @@
         <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>9000</v>
       </c>
@@ -879,8 +925,14 @@
       <c r="M3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9001</v>
       </c>
@@ -920,8 +972,14 @@
       <c r="M4" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9002</v>
       </c>
@@ -961,8 +1019,14 @@
       <c r="M5" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9003</v>
       </c>
@@ -1002,8 +1066,14 @@
       <c r="M6" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9004</v>
       </c>
@@ -1043,8 +1113,14 @@
       <c r="M7" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N7" s="1">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>9005</v>
       </c>
@@ -1084,8 +1160,14 @@
       <c r="M8" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="N8" s="1">
+        <v>62</v>
+      </c>
+      <c r="O8" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9006</v>
       </c>
@@ -1125,8 +1207,14 @@
       <c r="M9" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="N9" s="1">
+        <v>92</v>
+      </c>
+      <c r="O9" s="1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9007</v>
       </c>
@@ -1161,13 +1249,19 @@
         <v>36</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="N10" s="1">
+        <v>41</v>
+      </c>
+      <c r="O10" s="1">
+        <v>61</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9008</v>
       </c>
@@ -1207,8 +1301,14 @@
       <c r="M11" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="N11" s="1">
+        <v>86</v>
+      </c>
+      <c r="O11" s="1">
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9009</v>
       </c>
@@ -1243,10 +1343,63 @@
         <v>38</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>131</v>
+      </c>
+      <c r="O12" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>250</v>
+      </c>
+      <c r="G13" s="1">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
